--- a/ass2/submitted/TaoJiang-20004769/data.xlsx
+++ b/ass2/submitted/TaoJiang-20004769/data.xlsx
@@ -5,26 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/159_735Studies in Parallel and Distributed Systems/ass2/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/159_735Studies in Parallel and Distributed Systems/ass2/submitted/TaoJiang-20004769/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0B140-903B-8A40-8793-0EA07F1197D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA9A51-24F0-3A41-B752-4320E6287665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40320" yWindow="480" windowWidth="24280" windowHeight="16360" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$2:$E$12</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$E$2:$E$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1561,7 +1551,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
